--- a/Stata/regression_results.xlsx
+++ b/Stata/regression_results.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20366"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\larry\Desktop\14.33 Project\14.33Short\Stata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4738F34-0F48-4F12-A2D3-8628C9DC2C2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E572EE75-2CEC-4709-A97E-FA9362600062}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12915" xr2:uid="{FCFDD1A1-546B-4E6E-A517-9CC03EA5CF05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -217,9 +218,6 @@
     <t>(0.135)</t>
   </si>
   <si>
-    <t>median_income_list</t>
-  </si>
-  <si>
     <t>0.000***</t>
   </si>
   <si>
@@ -374,12 +372,15 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>householdMedianIncome</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1253,11 +1254,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" showRuler="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="1">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1606,28 +1610,28 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1638,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>0</v>
@@ -1650,36 +1654,36 @@
         <v>0</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1693,45 +1697,45 @@
         <v>34</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1748,42 +1752,42 @@
         <v>0</v>
       </c>
       <c r="E20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1791,77 +1795,77 @@
         <v>0</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="F23" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="C24" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="F24" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="H24" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1876,90 +1880,90 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="C26" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>111</v>
-      </c>
       <c r="E28" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1989,6 +1993,13 @@
       <c r="H38" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;CEffect of Education Attainment on Voter Turnout for a County in the United States</oddHeader>
+  </headerFooter>
+  <ignoredErrors>
+    <ignoredError sqref="B2:H28" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>